--- a/user-studies/questionnaire.xlsx
+++ b/user-studies/questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/GitHub/master-thesis/user-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A916B42-E829-F945-BBAB-9FF3CE84C928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136CBC68-F905-9E43-BC01-F623629F1BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="1" xr2:uid="{C4951008-E5A0-7A43-A21A-FC207D5F19CD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="10">
   <si>
     <t>Chart type</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Blob plot</t>
+  </si>
+  <si>
+    <t>Which is your</t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54A694-7928-1343-8FAA-A407DDF3CB4A}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,6 +1324,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
     <sortCondition ref="A2:A25"/>

--- a/user-studies/questionnaire.xlsx
+++ b/user-studies/questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/GitHub/master-thesis/user-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136CBC68-F905-9E43-BC01-F623629F1BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390929C0-F73C-8A40-B549-9CA05F7C4968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="1" xr2:uid="{C4951008-E5A0-7A43-A21A-FC207D5F19CD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
   <si>
     <t>Chart type</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Which is your</t>
+  </si>
+  <si>
+    <t>Image File</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -885,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54A694-7928-1343-8FAA-A407DDF3CB4A}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,7 +905,7 @@
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -915,8 +921,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -932,8 +941,15 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="str">
+        <f>"Q"&amp;IF(LEN(A2)=1,"0","")&amp;A2&amp;".PNG"</f>
+        <v>Q01.PNG</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -949,8 +965,15 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F25" si="0">"Q"&amp;IF(LEN(A3)=1,"0","")&amp;A3&amp;".PNG"</f>
+        <v>Q02.PNG</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -966,8 +989,15 @@
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q03.PNG</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -983,8 +1013,15 @@
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q04.PNG</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1000,8 +1037,15 @@
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q05.PNG</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1017,8 +1061,15 @@
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q06.PNG</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1034,8 +1085,15 @@
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q07.PNG</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1051,8 +1109,15 @@
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q08.PNG</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1068,8 +1133,15 @@
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q09.PNG</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1085,8 +1157,15 @@
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10.PNG</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1102,8 +1181,15 @@
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q11.PNG</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1119,8 +1205,15 @@
       <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q12.PNG</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1136,8 +1229,15 @@
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q13.PNG</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1153,8 +1253,15 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q14.PNG</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1170,8 +1277,15 @@
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q15.PNG</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1187,8 +1301,15 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q16.PNG</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1204,8 +1325,15 @@
       <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q17.PNG</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1221,8 +1349,15 @@
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q18.PNG</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1238,8 +1373,15 @@
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q19.PNG</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1255,8 +1397,15 @@
       <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q20.PNG</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1272,8 +1421,15 @@
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q21.PNG</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1289,8 +1445,15 @@
       <c r="E23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q22.PNG</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1306,8 +1469,15 @@
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q23.PNG</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1323,8 +1493,15 @@
       <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q24.PNG</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>

--- a/user-studies/questionnaire.xlsx
+++ b/user-studies/questionnaire.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/GitHub/master-thesis/user-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390929C0-F73C-8A40-B549-9CA05F7C4968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C143BFF-1D0B-454B-8991-2896AF0E56D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="1" xr2:uid="{C4951008-E5A0-7A43-A21A-FC207D5F19CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="survey-key" sheetId="2" r:id="rId2"/>
+    <sheet name="google-forms-questions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>Chart type</t>
   </si>
@@ -66,23 +67,263 @@
     <t>Blob plot</t>
   </si>
   <si>
-    <t>Which is your</t>
-  </si>
-  <si>
     <t>Image File</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Do.you.agree.to.take.part.in.this.study.</t>
+  </si>
+  <si>
+    <t>Please.enter.your.Prolific.ID</t>
+  </si>
+  <si>
+    <t>Can.you.name.the.visualization.method.used.in.the.chart.below.</t>
+  </si>
+  <si>
+    <t>Can.you.name.the.visualization.method.used.in.the.chart.below..1</t>
+  </si>
+  <si>
+    <t>Can.you.name.the.visualization.method.used.in.the.chart.below..2</t>
+  </si>
+  <si>
+    <t>Can.you.name.the.visualization.method.used.in.the.chart.below..3</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B.</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer.</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..1</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..1</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..2</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..2</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..3</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..3</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..4</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..4</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..5</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..5</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..6</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..6</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..7</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..7</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..8</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..8</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..9</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..9</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..10</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..10</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..11</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..11</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..12</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..12</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..13</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..13</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..14</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..14</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..15</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..15</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..16</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..16</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..17</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..17</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..18</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..18</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..19</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..19</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..20</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..20</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..21</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..21</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..22</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..22</t>
+  </si>
+  <si>
+    <t>Which.is.larger..A.or.B..23</t>
+  </si>
+  <si>
+    <t>How.confident.do.you.feel.about.your.answer..23</t>
+  </si>
+  <si>
+    <t>Considering.the.tasks.that.you.ve.just.performed..how.do.you.rate.the.treemap.visualization.method.</t>
+  </si>
+  <si>
+    <t>Considering.the.tasks.that.you.ve.just.performed..how.do.you.rate.the.bubble.chart.visualization.method.</t>
+  </si>
+  <si>
+    <t>Considering.the.tasks.that.you.ve.just.performed..how.do.you.rate.the.donut.chart.visualization.method.</t>
+  </si>
+  <si>
+    <t>Considering.the.tasks.that.you.ve.just.performed..how.do.you.rate.the.blob.plot.visualization.method.</t>
+  </si>
+  <si>
+    <t>Based.on.your.personal.preference..which.of.these.methods.did.you.find.most.aesthetically.pleasing.</t>
+  </si>
+  <si>
+    <t>Given.that.a.visualization.is.just.a.representation.of.the.data..and.that.the.data.is.just.a.representation.of.reality..the.process.of.modeling.reality.into.a.visualization.carries.an.important.component.of.underlying.uncertainty.and.imprecisions..In.your.opinion..which.visualization.method.best.conveys.the.idea.of.imprecision.in.the.data.</t>
+  </si>
+  <si>
+    <t>Please.feel.free.to.write.in.this.field.any.impressions..feedbacks..criticisms.or.opinions.about.the..blob.plot..method.</t>
+  </si>
+  <si>
+    <t>Based.on.your.personal.preference..which.of.these.methods.would.you.prefer.to.use.for.tasks.similar.to.those.you.performed.in.this.study.</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>prolificID</t>
+  </si>
+  <si>
+    <t>vis_name1</t>
+  </si>
+  <si>
+    <t>vis_name2</t>
+  </si>
+  <si>
+    <t>vis_name3</t>
+  </si>
+  <si>
+    <t>vis_name4</t>
+  </si>
+  <si>
+    <t>aesthetic_preference</t>
+  </si>
+  <si>
+    <t>uncertainty_preference</t>
+  </si>
+  <si>
+    <t>general_preference</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Google_Form_Question</t>
+  </si>
+  <si>
+    <t>effectivity_treemap</t>
+  </si>
+  <si>
+    <t>effectivity_bubble_chart</t>
+  </si>
+  <si>
+    <t>effectivity_donut</t>
+  </si>
+  <si>
+    <t>effectivity_blob</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -891,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D54A694-7928-1343-8FAA-A407DDF3CB4A}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,7 +1146,7 @@
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -922,10 +1163,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -945,11 +1188,8 @@
         <f>"Q"&amp;IF(LEN(A2)=1,"0","")&amp;A2&amp;".PNG"</f>
         <v>Q01.PNG</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -969,11 +1209,8 @@
         <f t="shared" ref="F3:F25" si="0">"Q"&amp;IF(LEN(A3)=1,"0","")&amp;A3&amp;".PNG"</f>
         <v>Q02.PNG</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -993,11 +1230,8 @@
         <f t="shared" si="0"/>
         <v>Q03.PNG</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1017,11 +1251,8 @@
         <f t="shared" si="0"/>
         <v>Q04.PNG</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1041,11 +1272,8 @@
         <f t="shared" si="0"/>
         <v>Q05.PNG</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1065,11 +1293,8 @@
         <f t="shared" si="0"/>
         <v>Q06.PNG</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1089,11 +1314,8 @@
         <f t="shared" si="0"/>
         <v>Q07.PNG</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1113,11 +1335,8 @@
         <f t="shared" si="0"/>
         <v>Q08.PNG</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1137,11 +1356,8 @@
         <f t="shared" si="0"/>
         <v>Q09.PNG</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1161,11 +1377,8 @@
         <f t="shared" si="0"/>
         <v>Q10.PNG</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1185,11 +1398,8 @@
         <f t="shared" si="0"/>
         <v>Q11.PNG</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1209,11 +1419,8 @@
         <f t="shared" si="0"/>
         <v>Q12.PNG</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1233,11 +1440,8 @@
         <f t="shared" si="0"/>
         <v>Q13.PNG</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1257,11 +1461,8 @@
         <f t="shared" si="0"/>
         <v>Q14.PNG</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1281,11 +1482,8 @@
         <f t="shared" si="0"/>
         <v>Q15.PNG</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1305,11 +1503,8 @@
         <f t="shared" si="0"/>
         <v>Q16.PNG</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1329,11 +1524,8 @@
         <f t="shared" si="0"/>
         <v>Q17.PNG</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1353,11 +1545,8 @@
         <f t="shared" si="0"/>
         <v>Q18.PNG</v>
       </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1377,11 +1566,8 @@
         <f t="shared" si="0"/>
         <v>Q19.PNG</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1401,11 +1587,8 @@
         <f t="shared" si="0"/>
         <v>Q20.PNG</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1425,11 +1608,8 @@
         <f t="shared" si="0"/>
         <v>Q21.PNG</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1449,11 +1629,8 @@
         <f t="shared" si="0"/>
         <v>Q22.PNG</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1473,11 +1650,8 @@
         <f t="shared" si="0"/>
         <v>Q23.PNG</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1496,14 +1670,6 @@
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Q24.PNG</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1512,4 +1678,776 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73651222-2EF0-F646-81DA-2EA4556B0364}">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="91.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"Q"&amp;C9&amp;"_"&amp;IF(LEFT(A9,5)="Which","answer","confidence")</f>
+        <v>Q1_answer</v>
+      </c>
+      <c r="C9">
+        <f>INT(IMDIV(ROW()-9,2))+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ref="B10:B56" si="0">"Q"&amp;C10&amp;"_"&amp;IF(LEFT(A10,5)="Which","answer","confidence")</f>
+        <v>Q1_confidence</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C56" si="1">INT(IMDIV(ROW()-9,2))+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Q2_answer</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Q2_confidence</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Q3_answer</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Q3_confidence</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Q4_answer</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Q4_confidence</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Q5_answer</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Q5_confidence</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Q6_answer</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Q6_confidence</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Q7_answer</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Q7_confidence</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Q8_answer</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Q8_confidence</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Q9_answer</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Q9_confidence</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10_answer</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Q10_confidence</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Q11_answer</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Q11_confidence</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Q12_answer</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Q12_confidence</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Q13_answer</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Q13_confidence</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Q14_answer</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Q14_confidence</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Q15_answer</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Q15_confidence</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Q16_answer</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Q16_confidence</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Q17_answer</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Q17_confidence</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Q18_answer</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Q18_confidence</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Q19_answer</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Q19_confidence</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Q20_answer</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Q20_confidence</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Q21_answer</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Q21_confidence</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Q22_answer</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Q22_confidence</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Q23_answer</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Q23_confidence</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Q24_answer</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Q24_confidence</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>